--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programa de Automatizacao Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE18E5D-EF15-4585-95E3-B0101F784CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6FC38C-2C21-45A4-9534-923BA24C2118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="16440" xr2:uid="{AB2A274E-4327-41E4-8C99-F2074CEF43BE}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{AB2A274E-4327-41E4-8C99-F2074CEF43BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Pré-Parto</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t xml:space="preserve">FRUTAS MOLES </t>
-  </si>
-  <si>
-    <t>ARTHUR FELIPE</t>
   </si>
 </sst>
 </file>
@@ -586,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A825D7-86D7-4AD3-8FD1-97DCB320C52B}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +886,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
@@ -897,28 +894,25 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="2">
         <v>302</v>
       </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="2">
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="2">
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
@@ -926,67 +920,67 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="2">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="2">
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="2">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="2">
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="2">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="2">
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="2">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="2">
         <v>501</v>

--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -667,7 +667,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>YWRI MATOS</t>
+          <t>ARTHUR FELIPE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>

--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ANTÔNIO</t>
+          <t>FULANO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JONAS</t>
+          <t>JOÃOZINHO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -545,7 +545,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MARCELO</t>
+          <t>MARCELINHA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RAU</t>
+          <t>PINOQUIO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DELSON</t>
+          <t>URSINHO POF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NEIKISON</t>
+          <t>DONATELLO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -665,11 +665,7 @@
           <t>706</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ARTHUR FELIPE</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
     </row>
@@ -731,7 +727,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JOSÉ FELIPE</t>
+          <t>DOMINIC TORETTO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -758,7 +754,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MARIA VITÓRIA</t>
+          <t>BRIAN COONER</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -800,7 +796,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FILIOL</t>
+          <t>OPTIMUS PRIME</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -842,7 +838,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>LUFFY</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1092,8 +1088,16 @@
           <t>201</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MAGALI</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LIVRE</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1107,9 +1111,21 @@
           <t>202</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MÔNICA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LIVRE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>S/SOPA</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1253,7 +1269,11 @@
           <t>501</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>VELMA</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
     </row>
@@ -1268,7 +1288,11 @@
           <t>502</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DAPHINY</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
     </row>
@@ -1343,9 +1367,21 @@
           <t>101</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SALSICHA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LIVRE</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>S/BISCOITO SCOOBY</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1358,8 +1394,16 @@
           <t>102</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FRED</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PASTOSA(200ml)</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1373,8 +1417,16 @@
           <t>103</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TITIO AVÔ</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>BRANDA + HIPERPROTEICA + HAS + RH</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">

--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Enfermaria" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UTI" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +464,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apartamento 01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>Apartamento 02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FULANO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PASTOSA + HAS</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -479,19 +492,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>401</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FULANO</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PASTOSA + HAS</t>
-        </is>
-      </c>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -502,57 +507,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>402</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>JOÃOZINHO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BRANDA+HAS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>S/FEIJÃO E S/FRANGO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apartamento 02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>403</t>
-        </is>
-      </c>
+          <t>Apartamento 03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JOÃOZINHO</t>
+          <t>MARCELINHA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRANDA+HAS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>S/FEIJÃO E S/FRANGO</t>
-        </is>
-      </c>
+          <t>PARENTERAL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apartamento 03</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MARCELINHA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PARENTERAL</t>
-        </is>
-      </c>
+          <t>Cirurgica Extra</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -563,11 +568,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PINOQUIO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LÍQUIDA PASTOSA</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -578,17 +591,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>703</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PINOQUIO</t>
+          <t>URSINHO POF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LÍQUIDA PASTOSA</t>
+          <t>LÍQUIDA DE PROVA (100ml)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -601,17 +614,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>704</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>URSINHO POF</t>
+          <t>DONATELLO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LÍQUIDA DE PROVA (100ml)</t>
+          <t>BRANDA + DM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -624,19 +637,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>704</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DONATELLO</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>BRANDA + DM</t>
-        </is>
-      </c>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -647,7 +652,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>706</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -657,12 +662,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cirurgica Extra</t>
+          <t>Pediatria</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>801</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -677,7 +682,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>802</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -692,7 +697,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>803</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -707,12 +712,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>803</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DOMINIC TORETTO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PARA IDADE (1A E 1M)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LEITE APTAMIL PEPTI, ACEITA FRANGO AO MOLHO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -722,22 +739,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>805</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DOMINIC TORETTO</t>
+          <t>BRIAN COONER</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PARA IDADE (1A E 1M)</t>
+          <t>PARA IDADE (5 ANOS)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LEITE APTAMIL PEPTI, ACEITA FRANGO AO MOLHO</t>
+          <t>S/LACTOSE + RH (ACEITA FRUTAS E FRANGO ASSADO)</t>
         </is>
       </c>
     </row>
@@ -749,39 +766,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>805</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BRIAN COONER</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>PARA IDADE (5 ANOS)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>S/LACTOSE + RH (ACEITA FRUTAS E FRANGO ASSADO)</t>
-        </is>
-      </c>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pediatria</t>
+          <t>Enfermaria Masculina</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>806</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OPTIMUS PRIME</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LIVRE + LAXATIVA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SEM SOPA</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -791,24 +808,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>901</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>OPTIMUS PRIME</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>LIVRE + LAXATIVA</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SEM SOPA</t>
-        </is>
-      </c>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -818,12 +823,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>902</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LUFFY</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BRANDA + HIPERPROTEICA + HAS + RH</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FRUTAS MOLES </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -833,24 +850,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>LUFFY</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>BRANDA + HIPERPROTEICA + HAS + RH</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FRUTAS MOLES </t>
-        </is>
-      </c>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -860,7 +865,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>905</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -875,7 +880,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>906</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -890,7 +895,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>907</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -900,12 +905,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Enfermaria Masculina</t>
+          <t>Enfermaria Femenina</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -920,7 +925,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -935,7 +940,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -950,7 +955,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -965,7 +970,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -980,7 +985,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -995,7 +1000,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1005,12 +1010,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Enfermaria Femenina</t>
+          <t>Maternidade Normal</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>301</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1025,7 +1030,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>302</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1040,7 +1045,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>303</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1055,7 +1060,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1065,16 +1070,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Maternidade Normal</t>
+          <t>Maternidade Cesárea</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MAGALI</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LIVRE</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1085,12 +1098,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MAGALI</t>
+          <t>MÔNICA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1098,7 +1111,11 @@
           <t>LIVRE</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>S/SOPA</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1108,24 +1125,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>MÔNICA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>LIVRE</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>S/SOPA</t>
-        </is>
-      </c>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1135,7 +1140,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1150,7 +1155,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1165,7 +1170,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1180,7 +1185,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>207</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1195,7 +1200,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1210,7 +1215,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1225,7 +1230,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1235,15 +1240,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Maternidade Cesárea</t>
+          <t>Cirúgica Feminina</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>VELMA</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
     </row>
@@ -1253,8 +1262,16 @@
           <t>Cirúgica Feminina</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DAPHINY</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
     </row>
@@ -1266,14 +1283,10 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>501</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>VELMA</t>
-        </is>
-      </c>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
     </row>
@@ -1285,14 +1298,10 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>502</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>DAPHINY</t>
-        </is>
-      </c>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
     </row>
@@ -1304,7 +1313,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>505</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1319,7 +1328,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>506</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1329,31 +1338,51 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cirúgica Feminina</t>
+          <t>Cirúgica Masculina</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>505</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SALSICHA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LIVRE</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>S/BISCOITO SCOOBY</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cirúgica Feminina</t>
+          <t>Cirúgica Masculina</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>506</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>FRED</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PASTOSA(200ml)</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1364,24 +1393,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SALSICHA</t>
+          <t>TITIO AVÔ</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LIVRE</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>S/BISCOITO SCOOBY</t>
-        </is>
-      </c>
+          <t>BRANDA + HIPERPROTEICA + HAS + RH</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1391,19 +1416,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>FRED</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>PASTOSA(200ml)</t>
-        </is>
-      </c>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1414,19 +1431,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>TITIO AVÔ</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>BRANDA + HIPERPROTEICA + HAS + RH</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -1437,7 +1446,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1447,12 +1456,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cirúgica Masculina</t>
+          <t>Pré-Parto</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1462,12 +1471,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cirúgica Masculina</t>
+          <t>Pré-Parto</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1477,10 +1486,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cirúgica Masculina</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>Pré-Parto</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
@@ -1493,7 +1506,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1508,7 +1521,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1523,57 +1536,111 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Pré-Parto</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Pré-Parto</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Pré-Parto</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LEITO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NOME DO PACIENTE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DIETA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>OBSERVAÇÕES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>REBECA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PASTOSA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NENHUMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AUGUSTO CARRARA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LIQUIDA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MORANGUINHO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LIVRE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -495,8 +495,16 @@
           <t>402</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BARBIE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BRANDA</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1554,7 +1562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1642,6 +1650,76 @@
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Enfermaria" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="UTI" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="UPA" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,4 +1724,99 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LEITO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NOME DO PACIENTE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DIETA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>OBSERVAÇÕES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ESTAB 01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MICHAEL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LIQUIDA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ESTAB 02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TREVOR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PASTOSA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ESTAB 03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FRANKLIN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LIVRE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -496,16 +496,8 @@
           <t>402</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BARBIE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BRANDA</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1611,7 +1603,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NENHUMA</t>
+          <t>ESSA OBS É UM TESTE DE PRODUÇÃO</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1615,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUGUSTO CARRARA</t>
+          <t>AUGUSTO CARRARA DE SOSUA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1631,7 +1623,11 @@
           <t>LIQUIDA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ESSA OBS É UM TESTE DE PRODUÇÃO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1649,7 +1645,11 @@
           <t>LIVRE</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ESSA OBS É UM TESTE DE PRODUÇÃO PODE E DEVE SER APAGADO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
